--- a/server/assets/工作室申请统计表.xlsx
+++ b/server/assets/工作室申请统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="24840" windowHeight="9560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="318">
   <si>
     <t>工作室补贴报名表</t>
   </si>
@@ -983,6 +983,12 @@
   </si>
   <si>
     <t xml:space="preserve">张舒缘 </t>
+  </si>
+  <si>
+    <t>0xb4602Eda36C3f35BFFB5A21d4b82806e79E50ee1</t>
+  </si>
+  <si>
+    <t>0x77bd41fdE654FE0054b771Ec6985dC9d5247BAfe</t>
   </si>
 </sst>
 </file>
@@ -2073,12 +2079,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" topLeftCell="A65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" topLeftCell="A79" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E84" sqref="E84"/>
+      <selection pane="topRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -5049,6 +5055,34 @@
         <v>312</v>
       </c>
       <c r="K90" s="26"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E90">
